--- a/SuRGE_Sharepoint/data/ADA/CH4_100_Lake Hanna/dataSheets/surgeData100.xlsx
+++ b/SuRGE_Sharepoint/data/ADA/CH4_100_Lake Hanna/dataSheets/surgeData100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/ADA/CH4_100_Lake Hanna/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/ADA/CH4_100_Lake Hanna/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1432" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A338390F-45DA-411B-AA74-6EA5E42A8710}"/>
+  <xr:revisionPtr revIDLastSave="1433" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{207070C2-3B07-4A6E-9407-CE26475E29EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1362,9 +1362,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1402,7 +1402,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1508,7 +1508,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1650,7 +1650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1661,75 +1661,75 @@
   <dimension ref="A1:BZ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+      <pane xSplit="2" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BS3" sqref="BS3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.5703125" customWidth="1"/>
-    <col min="31" max="31" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5546875" customWidth="1"/>
+    <col min="31" max="31" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.42578125" customWidth="1"/>
-    <col min="51" max="51" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.44140625" customWidth="1"/>
+    <col min="51" max="51" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="66" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>54</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>161</v>
       </c>
@@ -2130,15 +2130,6 @@
       <c r="AI3">
         <v>4.7</v>
       </c>
-      <c r="BT3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>184</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>185</v>
-      </c>
       <c r="BW3">
         <v>1.74</v>
       </c>
@@ -2152,7 +2143,7 @@
         <v>0.45694444444444443</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>161</v>
       </c>
@@ -2244,7 +2235,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>161</v>
       </c>
@@ -2335,8 +2326,17 @@
       <c r="BE5">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BT5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>161</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>161</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>161</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>161</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>161</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>161</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>161</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>161</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>161</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>161</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>161</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>161</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>161</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="I18" s="26"/>
       <c r="S18" s="27"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>161</v>
       </c>
@@ -3491,14 +3491,14 @@
       <selection sqref="A1:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>197</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>201</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>206</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>208</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>210</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>147</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -4281,17 +4281,17 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="25"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
@@ -4307,7 +4307,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>161</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>161</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>161</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>161</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>161</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>161</v>
       </c>
@@ -4532,14 +4532,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>123</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>124</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>125</v>
       </c>
@@ -4652,20 +4652,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
@@ -4705,6 +4691,20 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5179,9 +5179,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5195,19 +5201,32 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D0E0BA-29DE-48AA-AC1A-6C12E26FA84D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D0E0BA-29DE-48AA-AC1A-6C12E26FA84D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>